--- a/data-raw/fig-tab.xlsx
+++ b/data-raw/fig-tab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pilha\pipetbooks\basic\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21646CB4-8AD3-4A06-A496-F67AC7B792F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D36C86-F332-40F9-B77C-996504D8B1D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,26 @@
     <sheet name="112" sheetId="7" r:id="rId7"/>
     <sheet name="125" sheetId="8" r:id="rId8"/>
     <sheet name="187" sheetId="9" r:id="rId9"/>
+    <sheet name="16-1" sheetId="10" r:id="rId10"/>
+    <sheet name="pd-data" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="250">
   <si>
     <t>Variable Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,422 +172,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TRANS
-subroutine </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ADVAN2</t>
   </si>
   <si>
     <t>ADVAN3</t>
   </si>
   <si>
-    <t>TRANS3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K, K12, K21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V, Q, VSS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V1, Q, V2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOB, ALPHA, BETA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALPHA, BETA, K21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K, K23, K, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V, Q, VSS, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V2, Q, V3, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOB, ALPHA, BETA, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALPHA, BETA, K31, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1, S2, F1, R1, D1, ALAG1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K, K12, K21, K13, K31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1, S2, S3, S4, F1, F2, F3, R1, R2, R3, D1, D2, D3, ALAG1, ALAG2, ALAG3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1, S2, S3, S4, F1, F2, F3, R1, R2, R3, D1,D2, D3, ALAG1, ALAG2, ALAG3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1, S2, S3, F1, F2, R1, R2, D1, D2, ALAG1, ALAG2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V2, Q3, V3, Q4, V4, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VM, KM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL, V1, Q2, V2, Q3, V3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K, K23, K32, K24, K42, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALPHA, BETA, GAMMA, K32, K42, KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1, S2, S3, S4, S5, F1, F2, F3, F4, R1, R2, R3, R4, D1, D2, D3, D4, ALAG1,
-ALAG2, ALAG3, ALAG4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALPHA, BETA, GAMMA, K21, K31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
-    <t>CL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
     <t>VSS</t>
   </si>
   <si>
-    <t>KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Absorption rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALPHA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BETA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VSS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peripheral volume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reparameterization Lines</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K=CL/V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA=KA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K12=Q/V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K21=Q/(VSS-V)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K=CL/V1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K12=Q/V1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intercompartmental clearance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K21=Q/V2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K21=(AOB*BETA+ALPHA)/(AOB+1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K=ALPHA*BETA/K21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K12=ALPHA+BETA-K21-K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K21=K21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K23=Q/V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K32=Q/(VSS-V)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K=CL/V2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K23=Q/V2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K32=Q/V3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clearance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central Volume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clearance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume of distribution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Absorption rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume of distrlbution at steady state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A/B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rate constant from periph. to central</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intercompartmental clearance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ADVAN</t>
   </si>
   <si>
-    <t>ADVAN1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Compartments</t>
   </si>
   <si>
     <t>Basic and additional PK parameters</t>
   </si>
   <si>
-    <t>1 = Central</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 = Output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rate constant of elimination</t>
   </si>
   <si>
-    <t>Rate constant of elimination</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Scale for central compartment</t>
   </si>
   <si>
@@ -592,34 +214,6 @@
     <t>Bioavailability for central compartment</t>
   </si>
   <si>
-    <t>Bioavailability for central compartment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = Depot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 = Central</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 = Output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Absorption rate constant</t>
   </si>
   <si>
@@ -629,14 +223,6 @@
     <t>Bioavailability for depot compartment</t>
   </si>
   <si>
-    <t>2 = Peripheral</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rate constant from central to peripheral</t>
   </si>
   <si>
@@ -646,34 +232,6 @@
     <t>Scale for peripheral compartment</t>
   </si>
   <si>
-    <t>ADVAN4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 = Peripheral</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 = Output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Output Fractlon</t>
   </si>
   <si>
@@ -683,36 +241,10 @@
     <t>Scale for Peripheral compartment</t>
   </si>
   <si>
-    <t>Bioavailability for depot compartment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Bioavailability for peripheral compartment</t>
   </si>
   <si>
     <t>Bioavailability for Peripheral compartment</t>
-  </si>
-  <si>
-    <t>Alternative Parameters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADVAN
-subroutine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Required
-parameters </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Select additional parameters </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Starting Value: 0.70</t>
@@ -754,119 +286,547 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet=1, range="B2:D12")</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet=2, range="B2:H6")</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="47", range="B2:D39")</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="50", range="B2:E36")</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="71", range="B2:F20")</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="112", range="B2:E7")</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="125", range="B2:C6")</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="187", range="B2:F6")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select additional parameters </t>
+  </si>
+  <si>
+    <t>ADVAN1</t>
+  </si>
+  <si>
+    <t>TRANS1</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>S1, S2, F1, R1, D1, ALAG1</t>
+  </si>
+  <si>
+    <t>TRANS2</t>
+  </si>
+  <si>
+    <t>CL, V</t>
+  </si>
+  <si>
+    <t>K, KA</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, F1, F2, R1, R2, D1, D2, ALAG1, ALAG2</t>
+  </si>
+  <si>
+    <t>CL, V, KA</t>
+  </si>
+  <si>
+    <t>K, K12, K21</t>
+  </si>
+  <si>
+    <t>TRANS3</t>
+  </si>
+  <si>
+    <t>CL, V, Q, VSS</t>
+  </si>
+  <si>
+    <t>TRANS4</t>
+  </si>
+  <si>
+    <t>CL, V1, Q, V2</t>
+  </si>
+  <si>
+    <t>TRANS5</t>
+  </si>
+  <si>
+    <t>AOB, ALPHA, BETA</t>
+  </si>
+  <si>
+    <t>TRANS6</t>
+  </si>
+  <si>
+    <t>ALPHA, BETA, K21</t>
+  </si>
+  <si>
+    <t>ADVAN4</t>
+  </si>
+  <si>
+    <t>K, K23, K, KA</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S4, F1, F2, F3, R1, R2, R3, D1,D2, D3, ALAG1, ALAG2, ALAG3</t>
+  </si>
+  <si>
+    <t>CL, V, Q, VSS, KA</t>
+  </si>
+  <si>
+    <t>CL, V2, Q, V3, KA</t>
+  </si>
+  <si>
+    <t>AOB, ALPHA, BETA, KA</t>
+  </si>
+  <si>
+    <t>ALPHA, BETA, K31, KA</t>
+  </si>
+  <si>
+    <t>ADVAN10</t>
+  </si>
+  <si>
+    <t>VM, KM</t>
+  </si>
+  <si>
+    <t>ADVAN11</t>
+  </si>
+  <si>
+    <t>K, K12, K21, K13, K31</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S4, F1, F2, F3, R1, R2, R3, D1, D2, D3, ALAG1, ALAG2, ALAG3</t>
+  </si>
+  <si>
+    <t>CL, V1, Q2, V2, Q3, V3</t>
+  </si>
+  <si>
+    <t>ALPHA, BETA, GAMMA, K21, K31</t>
+  </si>
+  <si>
+    <t>ADVAN12</t>
+  </si>
+  <si>
+    <t>K, K23, K32, K24, K42, KA</t>
+  </si>
+  <si>
+    <t>CL, V2, Q3, V3, Q4, V4, KA</t>
+  </si>
+  <si>
+    <t>ALPHA, BETA, GAMMA, K32, K42, KA</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="28", range="B2:E23")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANS subroutine </t>
+  </si>
+  <si>
+    <t>ADVAN subroutine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required parameters </t>
+  </si>
+  <si>
+    <t>Alternative Parameters</t>
+  </si>
+  <si>
+    <t>Reparameterization Lines</t>
+  </si>
+  <si>
+    <t>Clearance</t>
+  </si>
+  <si>
+    <t>K=CL/V</t>
+  </si>
+  <si>
+    <t>Volume of distribution</t>
+  </si>
+  <si>
+    <t>KA=KA</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Absorption rate</t>
+  </si>
+  <si>
+    <t>Central Volume</t>
+  </si>
+  <si>
+    <t>K12=Q/V</t>
+  </si>
+  <si>
+    <t>Intercompartmental clearance</t>
+  </si>
+  <si>
+    <t>K21=Q/(VSS-V)</t>
+  </si>
+  <si>
+    <t>Volume of distrlbution at steady state</t>
+  </si>
+  <si>
+    <t>K=CL/V1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>K12=Q/V1</t>
+  </si>
+  <si>
+    <t>K21=Q/V2</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Peripheral volume</t>
+  </si>
+  <si>
+    <t>AOB</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t>K21=(AOB*BETA+ALPHA)/(AOB+1)</t>
+  </si>
+  <si>
+    <t>ALPHA</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>K=ALPHA*BETA/K21</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>K12=ALPHA+BETA-K21-K</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>Rate constant from periph. to central</t>
+  </si>
+  <si>
+    <t>K21=K21</t>
+  </si>
+  <si>
+    <t>K23=Q/V</t>
+  </si>
+  <si>
+    <t>K32=Q/(VSS-V)</t>
+  </si>
+  <si>
+    <t>K=CL/V2</t>
+  </si>
+  <si>
+    <t>K23=Q/V2</t>
+  </si>
+  <si>
+    <t>K32=Q/V3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>**ADVAN1**</t>
+  </si>
+  <si>
+    <t>**TRANS2**</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>**ADVAN3**</t>
+  </si>
+  <si>
+    <t>**ADVAN2**</t>
+  </si>
+  <si>
+    <t>**TRANS3**</t>
+  </si>
+  <si>
+    <t>**TRANS4**</t>
+  </si>
+  <si>
+    <t>**TRANS5**</t>
+  </si>
+  <si>
+    <t>**ADVAN4**</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>K23</t>
+  </si>
+  <si>
+    <t>K32</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>1 = Central, 2 = Output</t>
+  </si>
+  <si>
+    <t>1 = Depot, 2 = Central, 3 = Output</t>
+  </si>
+  <si>
+    <t>1 = Depot, 2 = Peripheral, 3 = Output</t>
+  </si>
+  <si>
+    <t>1 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>2 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>3 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>4 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>5 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>6 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>7 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>8 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>9 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>10 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>11 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>12 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Goodness-of-fit</t>
+  </si>
+  <si>
+    <t>Fit statistics (OFV, iOFV)</t>
+  </si>
+  <si>
+    <t>Akaike information criterion (AIC) for non-nested model</t>
+  </si>
+  <si>
+    <t>Goodness-of-fit plot</t>
+  </si>
+  <si>
+    <t>Individual plot</t>
+  </si>
+  <si>
+    <t>Parameter accuracy &amp; preciseness</t>
+  </si>
+  <si>
+    <t>Parameter estimates</t>
+  </si>
+  <si>
+    <t>Parameter imprecision estimates (by NONMEM)</t>
+  </si>
+  <si>
+    <t>EBE shrinkage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap median &amp; confidence interval </t>
+  </si>
+  <si>
+    <t>Empirical Bayes Estimate (EBE) distribution</t>
+  </si>
+  <si>
+    <t>Reproducibility</t>
+  </si>
+  <si>
+    <t>Numerical Predictive Check (NPC)</t>
+  </si>
+  <si>
+    <t>Visual Predictive Check (VPC)</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="16-1", range="B2:D10")</t>
+  </si>
+  <si>
     <t xml:space="preserve">PK-PD
 연결 방법 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PK data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Population PK
 parameter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Individual PK
 parameter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simultaneous
-PK-PD
-analysis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIM
-(Simultaneous)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Estimate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sequential
-PK-PD
-analysis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPP&amp;D
-(Population PK
-Parameter &amp;
-Data)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPP
-(Population PK
-Parameters)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPP
-(Individual PK
-Parameters)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Estimate (by PK data)</t>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-
-(not considered)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Estimate (by PK data)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Estimate (by PD data)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fix (as given by the PK model)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet=1, range="B2:D12")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet=2, range="B2:H6")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet=3, range="B2:E23")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="47", range="B2:D39")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="50", range="B2:E36")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="71", range="B2:F20")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="112", range="B2:E7")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="125", range="B2:C6")</t>
-  </si>
-  <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="187", range="B2:F6")</t>
+  </si>
+  <si>
+    <t>분석</t>
+  </si>
+  <si>
+    <t>Simultaneous PK-PD analysis</t>
+  </si>
+  <si>
+    <t>Sequential PK-PD analysis</t>
+  </si>
+  <si>
+    <t>PPP&amp;D (Population PK Parameter &amp; Data)</t>
+  </si>
+  <si>
+    <t>PPP (Population PK Parameters)</t>
+  </si>
+  <si>
+    <t>IPP (Individual PK Parameters)</t>
+  </si>
+  <si>
+    <t>SIM (Simultaneous)</t>
+  </si>
+  <si>
+    <t>(not considered)</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S4, S5, F1, F2, F3, F4, R1, R2, R3, R4, D1, D2, D3, D4, ALAG1, ALAG2, ALAG3, ALAG4</t>
+  </si>
+  <si>
+    <t>PD 데이터의 종류</t>
+  </si>
+  <si>
+    <t>특징</t>
+  </si>
+  <si>
+    <t>모델링할 때의 주의점</t>
+  </si>
+  <si>
+    <t>Continuous response (interval or ratio)</t>
+  </si>
+  <si>
+    <t>관찰값들의 크기가 비교 가능하고 일정한 간격 단위로 측정되므로 Mean, SD 등으로 요약 가능</t>
+  </si>
+  <si>
+    <t>1)간격척도(Interval scale): 체온 등(절대적 0의 값 없음)</t>
+  </si>
+  <si>
+    <t>2)비척도(Ratio scale): 체중, 혈압, 농도 등 (절대적 0의 값 있음)</t>
+  </si>
+  <si>
+    <t>IPRED나 PRED 가 DV 값 자체와 얼마나 비슷한지가 중요(가장 흔히 쓰는 방식)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary / categorical response </t>
+  </si>
+  <si>
+    <t>이진(binary): 증상의 유/무 등</t>
+  </si>
+  <si>
+    <t>3가지 이상 범주(categorical):</t>
+  </si>
+  <si>
+    <t>-Simple categorical: 인종, 혈액형 등</t>
+  </si>
+  <si>
+    <t>-Ordered categorical: 병기(stage), VAS(visual analog scale)</t>
+  </si>
+  <si>
+    <t>관찰값들 간의 간격의 크기를 알 수 없어 비교 불가</t>
+  </si>
+  <si>
+    <t>Count data</t>
+  </si>
+  <si>
+    <t>질병의 발현을 숫자로 셀 수 있을 때 (뇌전증의 발작 횟수 등)</t>
+  </si>
+  <si>
+    <t>Time to event data</t>
+  </si>
+  <si>
+    <t>예) 수면유도제의 효과: 잠들 때까지의 시간</t>
+  </si>
+  <si>
+    <t>관찰된 DV 값 자체가 아닌 그 값이 관찰될 확률에 대해 평가하므로 $ESTIMATION 블록에서 LIKELIHOOD 나 -2LL 옵션써서 해야 함. LAPLACIAN 방법을 흔히 씀. 그러므로 PRED 값은 해당 시점의 DV 값이 나올 확률을 의미하고, IPRED는 따로 구할 수 없음</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="pd-data", range="B2:D13")</t>
+  </si>
+  <si>
+    <t>Mean, SD 등으로 나타내기 부적절</t>
   </si>
 </sst>
 </file>
@@ -956,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -979,138 +939,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1120,14 +948,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1151,100 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1262,44 +991,8 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1313,13 +1006,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1470,16 +1160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>35554</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387979</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1509,8 +1199,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7512679" y="200026"/>
-          <a:ext cx="6203321" cy="8534400"/>
+          <a:off x="9389104" y="0"/>
+          <a:ext cx="5517521" cy="7934325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2508,7 +2198,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2839,138 +2529,419 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E3B6DF-9174-4BF9-85BD-7F7D5C7FFA54}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="61.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599CC587-9935-4C3A-9ED3-2CCB4EAA699F}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="233.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2988,120 +2959,120 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="45">
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="45">
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>8</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="45">
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>64</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="45">
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>64</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3117,7 +3088,7 @@
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3128,275 +3099,320 @@
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="43.5" customHeight="1">
-      <c r="B2" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:5" ht="30">
+      <c r="B2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="52"/>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="53"/>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" customHeight="1">
-      <c r="B5" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>66</v>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="54"/>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="49"/>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="49"/>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="54"/>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="49"/>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="54"/>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="49"/>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="54"/>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="49"/>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="54"/>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="2:5" ht="49.5" customHeight="1">
-      <c r="B12" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>65</v>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="54"/>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="49"/>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="54"/>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="49"/>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="54"/>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="49"/>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="54"/>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="49"/>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>64</v>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="54"/>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="53"/>
-    </row>
-    <row r="20" spans="2:5" ht="30">
-      <c r="B20" s="54"/>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="53"/>
-    </row>
-    <row r="21" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B21" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>73</v>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="51"/>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="49"/>
-    </row>
-    <row r="23" spans="2:5" ht="30">
-      <c r="B23" s="52"/>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="49"/>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3407,413 +3423,399 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="12" t="s">
-        <v>94</v>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="41" t="s">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="14" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="14" t="s">
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="18" t="s">
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="C39" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="16"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3824,414 +3826,512 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="G2" s="19"/>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="51"/>
-      <c r="C4" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>141</v>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="51"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>142</v>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="51"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>145</v>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="52"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>143</v>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="51"/>
-      <c r="C9" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="51"/>
-      <c r="C10" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="51"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="51"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="51"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="51"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="52"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="51"/>
-      <c r="C17" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="51"/>
-      <c r="C18" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="51"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="51"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="51"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="51"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="51"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="52"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="57"/>
-      <c r="C26" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="57"/>
-      <c r="C27" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="25" t="s">
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="57"/>
-      <c r="C28" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="57"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="57"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="57"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="57"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="57"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="57"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="57"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="58"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>167</v>
+      <c r="E36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B25:B36"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B24"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4255,292 +4355,292 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="43">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="11">
         <v>0.7</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="12">
         <v>-13.19</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="12">
         <v>22.16</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="43">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="11">
         <v>1.3</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="12">
         <v>17.850000000000001</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="12">
         <v>52.24</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="43">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="11">
         <v>0.95</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="12">
         <v>-2.72</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="12">
         <v>56.64</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="43">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="12">
         <v>0.09</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="12">
         <v>60.09</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="B9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="43">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="11">
         <v>1.6</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="12">
         <v>25.8</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="12">
         <v>-7.68</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="12">
         <v>4.96</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="43">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="11">
         <v>4.96</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="12">
         <v>16956.16</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="12">
         <v>25498.560000000001</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="12">
         <v>4.3</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="43">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="11">
         <v>4.3</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="12">
         <v>5419.61</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="12">
         <v>10714.92</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="12">
         <v>3.79</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="43">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="11">
         <v>3.79</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="12">
         <v>1696.52</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="12">
         <v>4601.51</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="12">
         <v>3.42</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="43">
+      <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="11">
         <v>3.42</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="12">
         <v>507.53</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="12">
         <v>2070.6</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="12">
         <v>3.18</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="43">
+      <c r="B15" s="10">
         <v>6</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="11">
         <v>3.18</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="12">
         <v>135.68</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="12">
         <v>1036.75</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="12">
         <v>3.04</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="43">
+      <c r="B16" s="10">
         <v>7</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="11">
         <v>3.04</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="12">
         <v>26.45</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="12">
         <v>649.51</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="43">
+      <c r="B17" s="10">
         <v>8</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="11">
         <v>3</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="12">
         <v>2.08</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="12">
         <v>548.97</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="43">
+      <c r="B18" s="10">
         <v>9</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="11">
         <v>3</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="12">
         <v>0.02</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="12">
         <v>540.07000000000005</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="43">
+      <c r="B19" s="10">
         <v>10</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="11">
         <v>3</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="13">
         <v>0</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="12">
         <v>540</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="43">
+      <c r="B20" s="10">
         <v>11</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="11">
         <v>3</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="13">
         <v>0</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="12">
         <v>540</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="C21" s="42"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4573,86 +4673,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="63"/>
-      <c r="C3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>185</v>
+      <c r="B3" s="18"/>
+      <c r="C3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>3.84</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>6.63</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>10.8</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>5.99</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>9.2100000000000009</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>13.8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>7.81</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>11.3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>16.3</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>9.49</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>13.3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>18.5</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4680,48 +4780,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>187</v>
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>5.99</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>7.81</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>9.49</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4735,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4748,94 +4848,97 @@
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="45">
-      <c r="B2" s="8"/>
-      <c r="C2" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="45">
-      <c r="B3" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="60">
-      <c r="B4" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="45">
-      <c r="B5" s="64"/>
-      <c r="C5" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="60">
-      <c r="B6" s="64"/>
-      <c r="C6" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>205</v>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:B6"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data-raw/fig-tab.xlsx
+++ b/data-raw/fig-tab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D36C86-F332-40F9-B77C-996504D8B1D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2BFA59-DB87-4D4A-B0DE-50AD14A78D1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>Compartments</t>
   </si>
   <si>
-    <t>Basic and additional PK parameters</t>
-  </si>
-  <si>
     <t>Rate constant of elimination</t>
   </si>
   <si>
@@ -258,26 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅿNo. of parameter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅿ-2LL by p-value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p = 0.05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p = 0.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p = 0.001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅿParameters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -301,9 +278,6 @@
     <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="71", range="B2:F20")</t>
   </si>
   <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="112", range="B2:E7")</t>
-  </si>
-  <si>
     <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="125", range="B2:C6")</t>
   </si>
   <si>
@@ -827,6 +801,27 @@
   </si>
   <si>
     <t>Mean, SD 등으로 나타내기 부적절</t>
+  </si>
+  <si>
+    <t>Number of parameters</t>
+  </si>
+  <si>
+    <t>p = 0.01</t>
+  </si>
+  <si>
+    <t>p = 0.001</t>
+  </si>
+  <si>
+    <t>p = 0.05</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="112", range="B2:E6")</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -838,7 +833,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,14 +888,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -948,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2076,15 +2060,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209009</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>37912</xdr:rowOff>
+      <xdr:colOff>218534</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2107,8 +2091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857750" y="209550"/>
-          <a:ext cx="4323809" cy="1504762"/>
+          <a:off x="4305300" y="76200"/>
+          <a:ext cx="3866609" cy="1371412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2518,7 +2502,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2539,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -2679,106 +2663,106 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599CC587-9935-4C3A-9ED3-2CCB4EAA699F}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2804,139 +2788,139 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2965,7 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="45">
@@ -3101,44 +3085,44 @@
   <sheetData>
     <row r="2" spans="2:5" ht="30">
       <c r="B2" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3146,13 +3130,13 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3160,13 +3144,13 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3174,13 +3158,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3188,13 +3172,13 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3202,13 +3186,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3216,13 +3200,13 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3230,186 +3214,186 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3436,21 +3420,21 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3458,10 +3442,10 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -3469,15 +3453,15 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -3485,10 +3469,10 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -3496,26 +3480,26 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -3523,10 +3507,10 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -3534,10 +3518,10 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -3545,10 +3529,10 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -3556,15 +3540,15 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -3572,21 +3556,21 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
         <v>127</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -3594,59 +3578,59 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -3654,48 +3638,48 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -3703,10 +3687,10 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -3714,10 +3698,10 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -3725,10 +3709,10 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -3736,26 +3720,26 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -3763,21 +3747,21 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -3785,34 +3769,34 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3826,8 +3810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3846,78 +3830,81 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
+        <v>249</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -3925,13 +3912,13 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -3939,13 +3926,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -3953,13 +3940,13 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -3967,13 +3954,13 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -3981,13 +3968,13 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -3995,13 +3982,13 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -4009,13 +3996,13 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -4023,13 +4010,13 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -4037,13 +4024,13 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -4051,13 +4038,13 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -4065,13 +4052,13 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -4079,13 +4066,13 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -4093,13 +4080,13 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -4107,13 +4094,13 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -4121,13 +4108,13 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -4135,13 +4122,13 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -4149,186 +4136,186 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +4343,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4372,7 +4359,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -4441,7 +4428,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -4640,7 +4627,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4661,10 +4648,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4673,93 +4660,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="18"/>
-      <c r="C3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>67</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3.84</v>
+      </c>
+      <c r="D3">
+        <v>6.63</v>
+      </c>
+      <c r="E3">
+        <v>10.8</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.84</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.63</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10.8</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5.99</v>
+      </c>
+      <c r="D4">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="E4">
+        <v>13.8</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13.8</v>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>7.81</v>
+      </c>
+      <c r="D5">
+        <v>11.3</v>
+      </c>
+      <c r="E5">
+        <v>16.3</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.81</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C6">
         <v>9.49</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D6">
         <v>13.3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E6">
         <v>18.5</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>75</v>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4771,7 +4746,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4781,10 +4756,10 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -4821,7 +4796,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4811,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4850,92 +4825,92 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/fig-tab.xlsx
+++ b/data-raw/fig-tab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2BFA59-DB87-4D4A-B0DE-50AD14A78D1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047818CC-E8E3-4E53-9920-72697B36E67C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-5670" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="240">
   <si>
     <t>Variable Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -269,9 +269,6 @@
     <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet=2, range="B2:H6")</t>
   </si>
   <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="47", range="B2:D39")</t>
-  </si>
-  <si>
     <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="50", range="B2:E36")</t>
   </si>
   <si>
@@ -518,33 +515,9 @@
     <t>V3</t>
   </si>
   <si>
-    <t>**ADVAN1**</t>
-  </si>
-  <si>
-    <t>**TRANS2**</t>
-  </si>
-  <si>
     <t>Detail</t>
   </si>
   <si>
-    <t>**ADVAN3**</t>
-  </si>
-  <si>
-    <t>**ADVAN2**</t>
-  </si>
-  <si>
-    <t>**TRANS3**</t>
-  </si>
-  <si>
-    <t>**TRANS4**</t>
-  </si>
-  <si>
-    <t>**TRANS5**</t>
-  </si>
-  <si>
-    <t>**ADVAN4**</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -588,39 +561,6 @@
   </si>
   <si>
     <t>1 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>2 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>3 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>4 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>5 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>6 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>7 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>8 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>9 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>10 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>11 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
-  </si>
-  <si>
-    <t>12 = Depot, 2= Central, 3 = Peripheral, 4 = Output</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -822,6 +762,36 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>ADVAN4 TRANS4</t>
+  </si>
+  <si>
+    <t>ADVAN4 TRANS3</t>
+  </si>
+  <si>
+    <t>ADVAN3 TRANS6</t>
+  </si>
+  <si>
+    <t>ADVAN3 TRANS5</t>
+  </si>
+  <si>
+    <t>ADVAN3 TRANS4</t>
+  </si>
+  <si>
+    <t>ADVAN3 TRANS3</t>
+  </si>
+  <si>
+    <t>ADVAN2 TRANS2</t>
+  </si>
+  <si>
+    <t>ADVAN1 TRANS2</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="47", range="B2:D31")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -2663,106 +2633,106 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2788,139 +2758,139 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3085,44 +3055,44 @@
   <sheetData>
     <row r="2" spans="2:5" ht="30">
       <c r="B2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3130,13 +3100,13 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3144,13 +3114,13 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3158,13 +3128,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3172,13 +3142,13 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3186,13 +3156,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3200,13 +3170,13 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3214,186 +3184,186 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
         <v>90</v>
       </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3405,398 +3375,425 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:D41"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
       </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
         <v>129</v>
       </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
       <c r="D30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>230</v>
+      </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3810,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3830,22 +3827,22 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -3853,13 +3850,13 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -3867,13 +3864,13 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -3881,13 +3878,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -3895,13 +3892,13 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -3912,10 +3909,10 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -3926,10 +3923,10 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -3940,10 +3937,10 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -3954,10 +3951,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -3968,10 +3965,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -3982,10 +3979,10 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -3996,10 +3993,10 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -4010,10 +4007,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -4024,10 +4021,10 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -4038,10 +4035,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -4052,10 +4049,10 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -4066,10 +4063,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -4080,10 +4077,10 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -4094,10 +4091,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -4108,10 +4105,10 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
@@ -4122,10 +4119,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
         <v>57</v>
@@ -4136,10 +4133,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -4147,13 +4144,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
         <v>48</v>
@@ -4161,13 +4158,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
         <v>43</v>
@@ -4175,13 +4172,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -4189,13 +4186,13 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
         <v>52</v>
@@ -4203,13 +4200,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
         <v>49</v>
@@ -4217,13 +4214,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
         <v>44</v>
@@ -4231,13 +4228,13 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -4245,13 +4242,13 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
@@ -4259,13 +4256,13 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
         <v>50</v>
@@ -4273,13 +4270,13 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
         <v>47</v>
@@ -4287,13 +4284,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -4301,13 +4298,13 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
         <v>54</v>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4624,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4661,16 +4658,16 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -4731,7 +4728,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +4793,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4825,92 +4822,92 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/fig-tab.xlsx
+++ b/data-raw/fig-tab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047818CC-E8E3-4E53-9920-72697B36E67C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF2264-58A2-4DF1-B038-D528E5EC6D1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5670" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="245">
   <si>
     <t>Variable Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,17 +244,6 @@
     <t>Bioavailability for Peripheral compartment</t>
   </si>
   <si>
-    <t>Starting Value: 0.70</t>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starting Value: 1.60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅿParameters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -272,9 +261,6 @@
     <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="50", range="B2:E36")</t>
   </si>
   <si>
-    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="71", range="B2:F20")</t>
-  </si>
-  <si>
     <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="125", range="B2:C6")</t>
   </si>
   <si>
@@ -792,18 +778,40 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>dydxi</t>
+  </si>
+  <si>
+    <t>dyd2xi</t>
+  </si>
+  <si>
+    <t>xi+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting </t>
+  </si>
+  <si>
+    <t>Value: 1.60</t>
+  </si>
+  <si>
+    <t>Value: 0.70</t>
+  </si>
+  <si>
+    <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="71", range="B2:F19")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,14 +858,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -897,15 +897,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,36 +930,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1310,669 +1282,18 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>277881</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23397</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="240322" cy="350032"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2340251" y="230462"/>
-              <a:ext cx="240322" cy="350032"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>ⅆ</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑌</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>ⅆ</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑋</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2340251" y="230462"/>
-              <a:ext cx="240322" cy="350032"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>ⅆ𝑌/(ⅆ𝑋_𝑖 )</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>288234</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>110158</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="162096" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1663147" y="317223"/>
-              <a:ext cx="162096" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑋</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1663147" y="317223"/>
-              <a:ext cx="162096" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑋_𝑖</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213691</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>35615</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="305725" cy="350032"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2963517" y="242680"/>
-              <a:ext cx="305725" cy="350032"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>ⅆ</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑌</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:sSup>
-                          <m:sSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>ⅆ</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSup>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑋</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2963517" y="242680"/>
-              <a:ext cx="305725" cy="350032"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>ⅆ𝑌/(ⅆ^2 𝑋_𝑖 )</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>155712</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>110158</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="397288" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3592995" y="317223"/>
-              <a:ext cx="397288" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+1</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3592995" y="317223"/>
-              <a:ext cx="397288" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥_𝑖+1</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>182219</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161324</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2002,8 +1323,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5052391" y="207066"/>
-          <a:ext cx="4306957" cy="4923823"/>
+          <a:off x="5400260" y="215348"/>
+          <a:ext cx="3859697" cy="4542823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2493,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -2633,106 +1954,106 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
         <v>173</v>
-      </c>
-      <c r="D5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
         <v>172</v>
       </c>
-      <c r="C8" t="s">
-        <v>176</v>
-      </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
         <v>176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2758,139 +2079,139 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
         <v>205</v>
-      </c>
-      <c r="C3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
         <v>205</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
         <v>205</v>
-      </c>
-      <c r="C5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
         <v>210</v>
       </c>
-      <c r="C9" t="s">
-        <v>214</v>
-      </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" t="s">
         <v>216</v>
-      </c>
-      <c r="C12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +2256,7 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="45">
@@ -3054,45 +2375,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="30">
-      <c r="B2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>108</v>
+      <c r="B2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3100,13 +2421,13 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3114,13 +2435,13 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3128,13 +2449,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3142,13 +2463,13 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3156,13 +2477,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3170,13 +2491,13 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3184,186 +2505,186 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
         <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3391,409 +2712,409 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3827,22 +3148,22 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -3850,13 +3171,13 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -3864,13 +3185,13 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -3878,13 +3199,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -3892,13 +3213,13 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -3909,10 +3230,10 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -3923,10 +3244,10 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -3937,10 +3258,10 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -3951,10 +3272,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -3965,10 +3286,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -3979,10 +3300,10 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -3993,10 +3314,10 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -4007,10 +3328,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -4021,10 +3342,10 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -4035,10 +3356,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -4049,10 +3370,10 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -4063,10 +3384,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -4077,10 +3398,10 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -4091,10 +3412,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -4105,10 +3426,10 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
@@ -4119,10 +3440,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
         <v>57</v>
@@ -4133,10 +3454,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -4144,13 +3465,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
         <v>48</v>
@@ -4158,13 +3479,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>43</v>
@@ -4172,13 +3493,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -4186,13 +3507,13 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
         <v>52</v>
@@ -4200,13 +3521,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
         <v>49</v>
@@ -4214,13 +3535,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
         <v>44</v>
@@ -4228,13 +3549,13 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -4242,13 +3563,13 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
@@ -4256,13 +3577,13 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
         <v>50</v>
@@ -4270,13 +3591,13 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
         <v>47</v>
@@ -4284,13 +3605,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -4298,13 +3619,13 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>54</v>
@@ -4312,7 +3633,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4324,319 +3645,308 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <v>-13.19</v>
+      </c>
+      <c r="E4">
+        <v>22.16</v>
+      </c>
+      <c r="F4">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="10">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="E5">
+        <v>52.24</v>
+      </c>
+      <c r="F5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.95</v>
+      </c>
+      <c r="D6">
+        <v>-2.72</v>
+      </c>
+      <c r="E6">
+        <v>56.64</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="12">
-        <v>-13.19</v>
-      </c>
-      <c r="E5" s="12">
-        <v>22.16</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="10">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.09</v>
+      </c>
+      <c r="E7">
+        <v>60.09</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
+      </c>
+      <c r="D9">
+        <v>25.8</v>
+      </c>
+      <c r="E9">
+        <v>-7.68</v>
+      </c>
+      <c r="F9">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>1.3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="E6" s="12">
-        <v>52.24</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="10">
+      <c r="C10">
+        <v>4.96</v>
+      </c>
+      <c r="D10">
+        <v>16956.16</v>
+      </c>
+      <c r="E10">
+        <v>25498.560000000001</v>
+      </c>
+      <c r="F10">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="12">
-        <v>-2.72</v>
-      </c>
-      <c r="E7" s="12">
-        <v>56.64</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="10">
+      <c r="C11">
+        <v>4.3</v>
+      </c>
+      <c r="D11">
+        <v>5419.61</v>
+      </c>
+      <c r="E11">
+        <v>10714.92</v>
+      </c>
+      <c r="F11">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="12">
-        <v>60.09</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="D10" s="12">
-        <v>25.8</v>
-      </c>
-      <c r="E10" s="12">
-        <v>-7.68</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>4.96</v>
-      </c>
-      <c r="D11" s="12">
-        <v>16956.16</v>
-      </c>
-      <c r="E11" s="12">
-        <v>25498.560000000001</v>
-      </c>
-      <c r="F11" s="12">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="10">
+      <c r="C12">
+        <v>3.79</v>
+      </c>
+      <c r="D12">
+        <v>1696.52</v>
+      </c>
+      <c r="E12">
+        <v>4601.51</v>
+      </c>
+      <c r="F12">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3.42</v>
+      </c>
+      <c r="D13">
+        <v>507.53</v>
+      </c>
+      <c r="E13">
+        <v>2070.6</v>
+      </c>
+      <c r="F13">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>3.18</v>
+      </c>
+      <c r="D14">
+        <v>135.68</v>
+      </c>
+      <c r="E14">
+        <v>1036.75</v>
+      </c>
+      <c r="F14">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>3.04</v>
+      </c>
+      <c r="D15">
+        <v>26.45</v>
+      </c>
+      <c r="E15">
+        <v>649.51</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="C12" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="D12" s="12">
-        <v>5419.61</v>
-      </c>
-      <c r="E12" s="12">
-        <v>10714.92</v>
-      </c>
-      <c r="F12" s="12">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="10">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3.79</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1696.52</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4601.51</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="10">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
-        <v>3.42</v>
-      </c>
-      <c r="D14" s="12">
-        <v>507.53</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2070.6</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="10">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11">
-        <v>3.18</v>
-      </c>
-      <c r="D15" s="12">
-        <v>135.68</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1036.75</v>
-      </c>
-      <c r="F15" s="12">
-        <v>3.04</v>
-      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="10">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3.04</v>
-      </c>
-      <c r="D16" s="12">
-        <v>26.45</v>
-      </c>
-      <c r="E16" s="12">
-        <v>649.51</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
+      <c r="D16">
+        <v>2.08</v>
+      </c>
+      <c r="E16">
+        <v>548.97</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="10">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="12">
-        <v>2.08</v>
-      </c>
-      <c r="E17" s="12">
-        <v>548.97</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="D17">
+        <v>0.02</v>
+      </c>
+      <c r="E17">
+        <v>540.07000000000005</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="10">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="E18" s="12">
-        <v>540.07000000000005</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>540</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="10">
-        <v>10</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19">
         <v>540</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="10">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>540</v>
-      </c>
-      <c r="F20" s="12">
-        <v>3</v>
-      </c>
-    </row>
     <row r="21" spans="2:6">
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>67</v>
+      <c r="B21" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:F4"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4658,16 +3968,16 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -4728,7 +4038,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4753,10 +4063,10 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -4793,7 +4103,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4822,92 +4132,92 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/fig-tab.xlsx
+++ b/data-raw/fig-tab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF2264-58A2-4DF1-B038-D528E5EC6D1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8A0D3-96E6-4052-A426-8D468A4A236A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -453,16 +453,10 @@
     <t>A/B</t>
   </si>
   <si>
-    <t>K21=(AOB*BETA+ALPHA)/(AOB+1)</t>
-  </si>
-  <si>
     <t>ALPHA</t>
   </si>
   <si>
     <t>alpha</t>
-  </si>
-  <si>
-    <t>K=ALPHA*BETA/K21</t>
   </si>
   <si>
     <t>BETA</t>
@@ -805,6 +799,12 @@
   </si>
   <si>
     <t>readxl::read_excel("data-raw/fig-tab.xlsx", sheet="71", range="B2:F19")</t>
+  </si>
+  <si>
+    <t>K21=(AOB*BETA+ALPHA) / (AOB+1)</t>
+  </si>
+  <si>
+    <t>K=ALPHA*BETA /K21</t>
   </si>
 </sst>
 </file>
@@ -1954,106 +1954,106 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
         <v>168</v>
       </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
-      </c>
-      <c r="D7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
         <v>174</v>
-      </c>
-      <c r="C10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2079,139 +2079,139 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
         <v>198</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
         <v>201</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
         <v>206</v>
       </c>
-      <c r="C7" t="s">
-        <v>208</v>
-      </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
         <v>214</v>
-      </c>
-      <c r="C13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2651,7 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -2665,7 +2665,7 @@
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -2679,7 +2679,7 @@
         <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -2698,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2712,13 +2712,13 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
         <v>121</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
         <v>124</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>126</v>
@@ -2905,82 +2905,82 @@
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
         <v>129</v>
       </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
         <v>132</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
         <v>129</v>
       </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
         <v>132</v>
-      </c>
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
         <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -3003,12 +3003,12 @@
         <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -3017,12 +3017,12 @@
         <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
         <v>113</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -3056,12 +3056,12 @@
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
         <v>124</v>
@@ -3070,12 +3070,12 @@
         <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -3084,15 +3084,15 @@
         <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
         <v>125</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3148,10 +3148,10 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -3160,7 +3160,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
@@ -3174,10 +3174,10 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -3188,10 +3188,10 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -3202,10 +3202,10 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -3216,10 +3216,10 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -3230,7 +3230,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
         <v>113</v>
@@ -3244,7 +3244,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
         <v>69</v>
@@ -3258,10 +3258,10 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -3272,10 +3272,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -3286,10 +3286,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -3300,10 +3300,10 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -3314,10 +3314,10 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -3328,10 +3328,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -3342,7 +3342,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
         <v>69</v>
@@ -3356,10 +3356,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -3370,10 +3370,10 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -3384,10 +3384,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -3398,10 +3398,10 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -3412,10 +3412,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -3426,10 +3426,10 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
@@ -3440,10 +3440,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
         <v>57</v>
@@ -3454,10 +3454,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -3468,7 +3468,7 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
         <v>113</v>
@@ -3482,7 +3482,7 @@
         <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
         <v>69</v>
@@ -3496,10 +3496,10 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -3510,10 +3510,10 @@
         <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
         <v>52</v>
@@ -3524,10 +3524,10 @@
         <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>49</v>
@@ -3538,10 +3538,10 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
         <v>44</v>
@@ -3552,10 +3552,10 @@
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -3566,10 +3566,10 @@
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
@@ -3580,10 +3580,10 @@
         <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
         <v>50</v>
@@ -3594,10 +3594,10 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
         <v>47</v>
@@ -3608,10 +3608,10 @@
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -3622,10 +3622,10 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
         <v>54</v>
@@ -3647,35 +3647,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
         <v>236</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>237</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>238</v>
-      </c>
-      <c r="E2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
         <v>241</v>
-      </c>
-      <c r="C3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -3748,10 +3748,10 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3968,16 +3968,16 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
         <v>219</v>
-      </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -4038,7 +4038,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4132,87 +4132,87 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
         <v>178</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>179</v>
-      </c>
-      <c r="E2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
         <v>182</v>
       </c>
-      <c r="E4" t="s">
-        <v>184</v>
-      </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
         <v>191</v>
       </c>
-      <c r="C5" t="s">
-        <v>193</v>
-      </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" t="s">
         <v>194</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:6">

--- a/data-raw/fig-tab.xlsx
+++ b/data-raw/fig-tab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8A0D3-96E6-4052-A426-8D468A4A236A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B539BDE-59EC-4BAE-8869-F3A2FE0C4E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2273,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>8</v>
@@ -2319,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>8</v>
@@ -2698,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
